--- a/RegressionTests/Unit_Test_5/transformed_secondzip/sptrans_Scheme_601010.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/sptrans_Scheme_601010.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="78">
   <si>
     <t>Remco Ltd</t>
   </si>
@@ -229,22 +229,25 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
+    <t>SURNAME</t>
   </si>
   <si>
-    <t>ppsno</t>
+    <t>FORENAME</t>
   </si>
   <si>
-    <t>payroll</t>
+    <t>REFNO</t>
   </si>
   <si>
-    <t>sper</t>
+    <t>PPSNO</t>
+  </si>
+  <si>
+    <t>PAYROLL</t>
+  </si>
+  <si>
+    <t>SPER</t>
   </si>
   <si>
     <t>845</t>
-  </si>
-  <si>
-    <t>SPER</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -23401,22 +23404,22 @@
         <v>61</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
@@ -23428,13 +23431,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0.0</v>
@@ -23464,7 +23467,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>96.88</v>
@@ -23479,7 +23482,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>72.92</v>
@@ -23732,22 +23735,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -23769,24 +23772,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
